--- a/Модуль 2урок 4 (2).xlsx
+++ b/Модуль 2урок 4 (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Аня\Desktop\ТЕСТИРОВЩИК\ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Аня\Desktop\ТЕСТИРОВЩИК\ДЗ\My-files-on-the-GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28776" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Предусловие:</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Отправленное сообщение выделенно жирным если мы сразу поставили символы ** в начале слова и  конце слова</t>
+  </si>
+  <si>
+    <t>проверяю изменения)</t>
   </si>
 </sst>
 </file>
@@ -123,18 +126,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -162,58 +154,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -504,55 +444,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="54.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="54.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -563,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -574,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -585,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -596,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -607,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -618,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -629,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -640,20 +580,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="п">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="п">
       <formula>NOT(ISERROR(SEARCH("п",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",C8)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Модуль 2урок 4 (2).xlsx
+++ b/Модуль 2урок 4 (2).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Предусловие:</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>проверяю изменения)</t>
+  </si>
+  <si>
+    <t>изменения не отображаются в файле на сайте(</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,6 +586,11 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Модуль 2урок 4 (2).xlsx
+++ b/Модуль 2урок 4 (2).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Предусловие:</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>изменения не отображаются в файле на сайте(</t>
+  </si>
+  <si>
+    <t>Изменения отобразились!)</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,6 +594,11 @@
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
